--- a/app/data/users.xlsx
+++ b/app/data/users.xlsx
@@ -1,128 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9" count="18">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>dajnoven@gmail.com</t>
-  </si>
-  <si>
-    <t>pbkdf2:sha256:1000000$UEsyBKzHJtyRKsRQ$951a8fb598388e8807516f027a22be40cd5acca6326e901e7299e3fe7579e9a5</t>
-  </si>
-  <si>
-    <t>Владислав</t>
-  </si>
-  <si>
-    <t>мило@gmail.com</t>
-  </si>
-  <si>
-    <t>pbkdf2:sha256:1000000$fFp1EvEqotXRQP34$a86d67d3841027e5b02d23bddaec860869a373ecac39f151d04b622062d38351</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2B579A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF2B579A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="0"/>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E7E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,53 +46,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF2B579A"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF2B579A"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
-    <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -533,57 +420,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" baseColWidth="8"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="39.66015625" customWidth="1"/>
-    <col min="3" max="3" width="121.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Babenko Vladislav Aleksandrovich</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dajnoven@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>995545613</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$I0Mw8o6L2tFVzX25$b8b7e8cc5c92fb70117556cfff4f7055e309eba92437c2ea04273973c4dbc3f456665fe7fbdc2027bbe1a0271b2cbb361fac42f8c74873438173c8f60facec02</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VLADYSLAV Vladislav BABENKO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>995545613</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$6xeEGxSBCgHVPBSg$d449271f42a28c2e16391be3cbead77862d4c7c24b3d96dfd2216a078cc6ce6d53ed70446a232d69d0de9a4009e1c417592bd635ac34ff16068c0589e143f284</t>
+        </is>
       </c>
     </row>
-    <row r="11"/>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VLADYSLAV Vladislav BABENKO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test1@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>995545613</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$oVCclHlURYcBnxJ8$2494505d9e3fbf5022db41a48f9517d6474c1651beb52284e2c80aeddfe89faf4435111a1c0b772bfa656a86e743e293de6ec4e814e719b0193c9b74d6fc470a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VLADYSLAV фывфв BABENKO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>testic@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0995545613</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$OH7DvXIcE5MNFBsE$2bd0059f2a3418979225508c362ab1c46e8deba9d6d47380518ce3f845b26714314a80e8084e424d4057a628b83189d60d2df56554417c98943feb1e761b6312</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>
 </file>
--- a/app/data/users.xlsx
+++ b/app/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,14 +526,142 @@
           <t>testic@gmail.com</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0995545613</t>
-        </is>
+      <c r="C5" t="n">
+        <v>995545613</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>scrypt:32768:8:1$OH7DvXIcE5MNFBsE$2bd0059f2a3418979225508c362ab1c46e8deba9d6d47380518ce3f845b26714314a80e8084e424d4057a628b83189d60d2df56554417c98943feb1e761b6312</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Уууу ууууу ууу</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rest@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>995545613</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$OJqNgaTNGkwBeH3L$af7341721d92e9385764d6152cbc2f9fc9a1a68b5c4d7971bde520592e794bcf55f89e2340b5bd608e8b12d1ae7b1db26d51e26dbd14ca3dad3625750f0d8acc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>asdasd asdasd asdasd</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>asdasd@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$9WKzTOTURTi6oAVo$0801073bb6d8e0ce3c502b3a4cc3d640fa91da56f4651e0b0188cba94083e79e7c5aa1065a62d23155abd23c73fbe7d216c958346f370bbdd43ac900ee65805c</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sadasd dassadsad asdasd</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>asd21asd@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$C6LUyzs1L8W3E1XZ$7dfeed822757b56f9fbc09eb5a637b5551379a2837c840e10e70371cb44f6d1683379da6636b3c1c7886531d2fba4925b87c177831d03eac1422e527ff189da6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>wqeqweqw qweqwe eqweqwe</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>eqweqweqweqw@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>qweqweqweqw</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$98d02SiN6xFYv90V$b9dd89e021c8d0149f7ffdb887c9648c50164e56a2a8e4c446f7870076350dda35dd06833ab19870f39bcdce19721412d616db29ec82ce0e14f237786b945523</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>asdasd asdasd asdasd</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dasdsadasdasdas@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asdasdas</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$7EdcRSHFSpbJmCty$4149b57728b290a0497ffc6ce015d36a59c80f5a134aceed7a1f032f3c502ad5d592e025e0b0fed8e96b297ea0e387e85f4286ffc00c01d79624f187b409eb6a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>asdsad asdasd sadasd</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>qwe@gmail.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>adasd</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$qfGHyGN2VoEcG6Wr$f1bc30afc9baf3a9a3acfebc849c94c6224d8d22fbd92aa7755e05399f267da304ae78b90e5cae11a3a67a3aa536e90f88c3b8f2d8f066a7ce9e8fe94e5e46d3</t>
         </is>
       </c>
     </row>

--- a/app/data/users.xlsx
+++ b/app/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +665,28 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VLADYSLAV Vladislav BABENKO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>kurwa@gmai.com</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0995545613</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$zYnikCYBIK5EYvWB$6aa3566c7165cffda71a002036a503a5d730e5d578975b218acb211087cc2445d257c3bdb4278db172d9626ba84c8ef2a0d6ea595f38dc22996cb5ecd4527598</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/data/users.xlsx
+++ b/app/data/users.xlsx
@@ -1,43 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullPrecision="1" calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45" count="98">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>password_hash</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Babenko Vladislav Aleksandrovich</t>
+  </si>
+  <si>
+    <t>dajnoven@gmail.com</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$I0Mw8o6L2tFVzX25$b8b7e8cc5c92fb70117556cfff4f7055e309eba92437c2ea04273973c4dbc3f456665fe7fbdc2027bbe1a0271b2cbb361fac42f8c74873438173c8f60facec02</t>
+  </si>
+  <si>
+    <t>VLADYSLAV Vladislav BABENKO</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$6xeEGxSBCgHVPBSg$d449271f42a28c2e16391be3cbead77862d4c7c24b3d96dfd2216a078cc6ce6d53ed70446a232d69d0de9a4009e1c417592bd635ac34ff16068c0589e143f284</t>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$oVCclHlURYcBnxJ8$2494505d9e3fbf5022db41a48f9517d6474c1651beb52284e2c80aeddfe89faf4435111a1c0b772bfa656a86e743e293de6ec4e814e719b0193c9b74d6fc470a</t>
+  </si>
+  <si>
+    <t>VLADYSLAV фывфв BABENKO</t>
+  </si>
+  <si>
+    <t>testic@gmail.com</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$OH7DvXIcE5MNFBsE$2bd0059f2a3418979225508c362ab1c46e8deba9d6d47380518ce3f845b26714314a80e8084e424d4057a628b83189d60d2df56554417c98943feb1e761b6312</t>
+  </si>
+  <si>
+    <t>Уууу ууууу ууу</t>
+  </si>
+  <si>
+    <t>rest@gmail.com</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$OJqNgaTNGkwBeH3L$af7341721d92e9385764d6152cbc2f9fc9a1a68b5c4d7971bde520592e794bcf55f89e2340b5bd608e8b12d1ae7b1db26d51e26dbd14ca3dad3625750f0d8acc</t>
+  </si>
+  <si>
+    <t>asdasd asdasd asdasd</t>
+  </si>
+  <si>
+    <t>asdasd@gmail.com</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$9WKzTOTURTi6oAVo$0801073bb6d8e0ce3c502b3a4cc3d640fa91da56f4651e0b0188cba94083e79e7c5aa1065a62d23155abd23c73fbe7d216c958346f370bbdd43ac900ee65805c</t>
+  </si>
+  <si>
+    <t>sadasd dassadsad asdasd</t>
+  </si>
+  <si>
+    <t>asd21asd@gmail.com</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$C6LUyzs1L8W3E1XZ$7dfeed822757b56f9fbc09eb5a637b5551379a2837c840e10e70371cb44f6d1683379da6636b3c1c7886531d2fba4925b87c177831d03eac1422e527ff189da6</t>
+  </si>
+  <si>
+    <t>wqeqweqw qweqwe eqweqwe</t>
+  </si>
+  <si>
+    <t>eqweqweqweqw@gmail.com</t>
+  </si>
+  <si>
+    <t>qweqweqweqw</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$98d02SiN6xFYv90V$b9dd89e021c8d0149f7ffdb887c9648c50164e56a2a8e4c446f7870076350dda35dd06833ab19870f39bcdce19721412d616db29ec82ce0e14f237786b945523</t>
+  </si>
+  <si>
+    <t>dasdsadasdasdas@gmail.com</t>
+  </si>
+  <si>
+    <t>asdasdas</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$7EdcRSHFSpbJmCty$4149b57728b290a0497ffc6ce015d36a59c80f5a134aceed7a1f032f3c502ad5d592e025e0b0fed8e96b297ea0e387e85f4286ffc00c01d79624f187b409eb6a</t>
+  </si>
+  <si>
+    <t>asdsad asdasd sadasd</t>
+  </si>
+  <si>
+    <t>qwe@gmail.com</t>
+  </si>
+  <si>
+    <t>adasd</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$qfGHyGN2VoEcG6Wr$f1bc30afc9baf3a9a3acfebc849c94c6224d8d22fbd92aa7755e05399f267da304ae78b90e5cae11a3a67a3aa536e90f88c3b8f2d8f066a7ce9e8fe94e5e46d3</t>
+  </si>
+  <si>
+    <t>kurwa@gmai.com</t>
+  </si>
+  <si>
+    <t>0995545613</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$zYnikCYBIK5EYvWB$6aa3566c7165cffda71a002036a503a5d730e5d578975b218acb211087cc2445d257c3bdb4278db172d9626ba84c8ef2a0d6ea595f38dc22996cb5ecd4527598</t>
+  </si>
+  <si>
+    <t>VLADYSLAV 12321 VLADYSLAV</t>
+  </si>
+  <si>
+    <t>dajnoven1@gmail.com</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$7N6K6yT7PvLr6N4d$efda40d9cb7a67653dbc5c84f03f21068101e127304fda9b38ab2aa92dc2fa22f88b8a79dd9fffd90db4824984446271b1001fbba9fc1a27b222925ab6833b26</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,25 +239,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
+    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -420,274 +641,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D12"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="8"/>
+  <cols>
+    <col min="1" max="1" width="9.97265625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Babenko Vladislav Aleksandrovich</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dajnoven@gmail.com</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>995545613</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$I0Mw8o6L2tFVzX25$b8b7e8cc5c92fb70117556cfff4f7055e309eba92437c2ea04273973c4dbc3f456665fe7fbdc2027bbe1a0271b2cbb361fac42f8c74873438173c8f60facec02</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>VLADYSLAV Vladislav BABENKO</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>test@gmail.com</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>995545613</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$6xeEGxSBCgHVPBSg$d449271f42a28c2e16391be3cbead77862d4c7c24b3d96dfd2216a078cc6ce6d53ed70446a232d69d0de9a4009e1c417592bd635ac34ff16068c0589e143f284</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>VLADYSLAV Vladislav BABENKO</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>test1@gmail.com</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>995545613</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$oVCclHlURYcBnxJ8$2494505d9e3fbf5022db41a48f9517d6474c1651beb52284e2c80aeddfe89faf4435111a1c0b772bfa656a86e743e293de6ec4e814e719b0193c9b74d6fc470a</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>VLADYSLAV фывфв BABENKO</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>testic@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>995545613</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$OH7DvXIcE5MNFBsE$2bd0059f2a3418979225508c362ab1c46e8deba9d6d47380518ce3f845b26714314a80e8084e424d4057a628b83189d60d2df56554417c98943feb1e761b6312</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Уууу ууууу ууу</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>rest@gmail.com</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>995545613</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$OJqNgaTNGkwBeH3L$af7341721d92e9385764d6152cbc2f9fc9a1a68b5c4d7971bde520592e794bcf55f89e2340b5bd608e8b12d1ae7b1db26d51e26dbd14ca3dad3625750f0d8acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>asdasd asdasd asdasd</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>asdasd@gmail.com</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$9WKzTOTURTi6oAVo$0801073bb6d8e0ce3c502b3a4cc3d640fa91da56f4651e0b0188cba94083e79e7c5aa1065a62d23155abd23c73fbe7d216c958346f370bbdd43ac900ee65805c</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>sadasd dassadsad asdasd</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>asd21asd@gmail.com</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$C6LUyzs1L8W3E1XZ$7dfeed822757b56f9fbc09eb5a637b5551379a2837c840e10e70371cb44f6d1683379da6636b3c1c7886531d2fba4925b87c177831d03eac1422e527ff189da6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>wqeqweqw qweqwe eqweqwe</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>eqweqweqweqw@gmail.com</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>qweqweqweqw</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$98d02SiN6xFYv90V$b9dd89e021c8d0149f7ffdb887c9648c50164e56a2a8e4c446f7870076350dda35dd06833ab19870f39bcdce19721412d616db29ec82ce0e14f237786b945523</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>asdasd asdasd asdasd</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>dasdsadasdasdas@gmail.com</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>asdasdas</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$7EdcRSHFSpbJmCty$4149b57728b290a0497ffc6ce015d36a59c80f5a134aceed7a1f032f3c502ad5d592e025e0b0fed8e96b297ea0e387e85f4286ffc00c01d79624f187b409eb6a</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>asdsad asdasd sadasd</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>qwe@gmail.com</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>adasd</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$qfGHyGN2VoEcG6Wr$f1bc30afc9baf3a9a3acfebc849c94c6224d8d22fbd92aa7755e05399f267da304ae78b90e5cae11a3a67a3aa536e90f88c3b8f2d8f066a7ce9e8fe94e5e46d3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>VLADYSLAV Vladislav BABENKO</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>kurwa@gmai.com</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0995545613</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$zYnikCYBIK5EYvWB$6aa3566c7165cffda71a002036a503a5d730e5d578975b218acb211087cc2445d257c3bdb4278db172d9626ba84c8ef2a0d6ea595f38dc22996cb5ecd4527598</t>
-        </is>
-      </c>
-    </row>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>
 </file>